--- a/Code/Results/Cases/Case_1_163/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_163/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9980725994778368</v>
+        <v>1.014835047558478</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0353840142258548</v>
+        <v>0.04148214030968056</v>
       </c>
       <c r="E2">
-        <v>0.1501709076381204</v>
+        <v>0.2927579589039091</v>
       </c>
       <c r="F2">
-        <v>1.180892928413513</v>
+        <v>1.236456993981065</v>
       </c>
       <c r="G2">
-        <v>1.148161232993246</v>
+        <v>1.11535828446145</v>
       </c>
       <c r="H2">
-        <v>0.7240021773208838</v>
+        <v>1.06594749751585</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.353994156778896</v>
+        <v>0.3856721015945084</v>
       </c>
       <c r="L2">
-        <v>0.2897092243227206</v>
+        <v>0.1439342446123106</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8879251625082532</v>
+        <v>0.9907636128689603</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03573336646708469</v>
+        <v>0.04133848113034233</v>
       </c>
       <c r="E3">
-        <v>0.1514669657809034</v>
+        <v>0.2939407682653901</v>
       </c>
       <c r="F3">
-        <v>1.088960196947596</v>
+        <v>1.218209807132737</v>
       </c>
       <c r="G3">
-        <v>1.059387921055873</v>
+        <v>1.096942095090753</v>
       </c>
       <c r="H3">
-        <v>0.6897530182560416</v>
+        <v>1.062126300758635</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.18540529060715</v>
+        <v>0.3357844291435299</v>
       </c>
       <c r="L3">
-        <v>0.2510088378755455</v>
+        <v>0.1338909479568997</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8213688892721507</v>
+        <v>0.976518745054733</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03594287877568902</v>
+        <v>0.04124646374188323</v>
       </c>
       <c r="E4">
-        <v>0.1523859401924081</v>
+        <v>0.294734379954761</v>
       </c>
       <c r="F4">
-        <v>1.034476817313433</v>
+        <v>1.207686301774544</v>
       </c>
       <c r="G4">
-        <v>1.006903430860106</v>
+        <v>1.086274783360608</v>
       </c>
       <c r="H4">
-        <v>0.6698631489344677</v>
+        <v>1.06025553162587</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.082244403598509</v>
+        <v>0.3051030483956936</v>
       </c>
       <c r="L4">
-        <v>0.2275002532950339</v>
+        <v>0.1278025210259131</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7944935651781293</v>
+        <v>0.9708486908503744</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03602709444401775</v>
+        <v>0.04120801483429659</v>
       </c>
       <c r="E5">
-        <v>0.1527906890457729</v>
+        <v>0.2950747382443701</v>
       </c>
       <c r="F5">
-        <v>1.012731198362189</v>
+        <v>1.203568621906896</v>
       </c>
       <c r="G5">
-        <v>0.985985287923981</v>
+        <v>1.082088305328483</v>
       </c>
       <c r="H5">
-        <v>0.6620264989476397</v>
+        <v>1.059612631928402</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.040265950925232</v>
+        <v>0.2925876863056374</v>
       </c>
       <c r="L5">
-        <v>0.2179758095479656</v>
+        <v>0.1253411061171477</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7900451948413831</v>
+        <v>0.9699153356748411</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03604101095831425</v>
+        <v>0.04120157318995155</v>
       </c>
       <c r="E6">
-        <v>0.1528597046029798</v>
+        <v>0.2951322790054025</v>
       </c>
       <c r="F6">
-        <v>1.009146906053019</v>
+        <v>1.202895186200607</v>
       </c>
       <c r="G6">
-        <v>0.9825391235777801</v>
+        <v>1.081402826173147</v>
       </c>
       <c r="H6">
-        <v>0.660740953275436</v>
+        <v>1.059513090606885</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.033298318084434</v>
+        <v>0.2905087728923093</v>
       </c>
       <c r="L6">
-        <v>0.2163974027087932</v>
+        <v>0.1249335781632084</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8210054693846018</v>
+        <v>0.9764417303488244</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03594401911900746</v>
+        <v>0.0412459490474788</v>
       </c>
       <c r="E7">
-        <v>0.1523912771784239</v>
+        <v>0.294738901472968</v>
       </c>
       <c r="F7">
-        <v>1.034181745958037</v>
+        <v>1.207630078468611</v>
       </c>
       <c r="G7">
-        <v>1.006619469297121</v>
+        <v>1.08621767367012</v>
       </c>
       <c r="H7">
-        <v>0.6697563962199951</v>
+        <v>1.060246377735822</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.081678058901076</v>
+        <v>0.3049343120373749</v>
       </c>
       <c r="L7">
-        <v>0.2273715891752062</v>
+        <v>0.1277692458783548</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9598561742203628</v>
+        <v>1.006424323061765</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03550556187034104</v>
+        <v>0.04143340151506969</v>
       </c>
       <c r="E8">
-        <v>0.1505917766172136</v>
+        <v>0.2931518204212828</v>
       </c>
       <c r="F8">
-        <v>1.14876395360875</v>
+        <v>1.230023944222125</v>
       </c>
       <c r="G8">
-        <v>1.117108183526909</v>
+        <v>1.108875196035143</v>
       </c>
       <c r="H8">
-        <v>0.7119455152630252</v>
+        <v>1.064531200369203</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.295773615567555</v>
+        <v>0.368481319398569</v>
       </c>
       <c r="L8">
-        <v>0.27630753562687</v>
+        <v>0.1404550852265913</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.241811400053336</v>
+        <v>1.069457376358173</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0346021239026868</v>
+        <v>0.04177047422624547</v>
       </c>
       <c r="E9">
-        <v>0.1480747994835596</v>
+        <v>0.2905733403527382</v>
       </c>
       <c r="F9">
-        <v>1.390841090910499</v>
+        <v>1.2793556116508</v>
       </c>
       <c r="G9">
-        <v>1.351719709189467</v>
+        <v>1.158411781266523</v>
       </c>
       <c r="H9">
-        <v>0.804586521138674</v>
+        <v>1.076712610597497</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.719822673476813</v>
+        <v>0.4926983044041435</v>
       </c>
       <c r="L9">
-        <v>0.3746888616736044</v>
+        <v>0.1659537250190226</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.456590453767291</v>
+        <v>1.11834613595309</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03390649626799558</v>
+        <v>0.04199915144917199</v>
       </c>
       <c r="E10">
-        <v>0.1468935499642683</v>
+        <v>0.2890034096473659</v>
       </c>
       <c r="F10">
-        <v>1.582014210773409</v>
+        <v>1.318933992454788</v>
       </c>
       <c r="G10">
-        <v>1.53789261508544</v>
+        <v>1.197957865798514</v>
       </c>
       <c r="H10">
-        <v>0.8800044272174716</v>
+        <v>1.087977051123858</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.036090304645938</v>
+        <v>0.5837262815918223</v>
       </c>
       <c r="L10">
-        <v>0.4490607859746802</v>
+        <v>0.1850705617980424</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.556378227018399</v>
+        <v>1.141146225536431</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03358207646346401</v>
+        <v>0.04209899126679417</v>
       </c>
       <c r="E11">
-        <v>0.1465135582224963</v>
+        <v>0.2883594713061566</v>
       </c>
       <c r="F11">
-        <v>1.672543742164521</v>
+        <v>1.337670426804806</v>
       </c>
       <c r="G11">
-        <v>1.626288386426381</v>
+        <v>1.216641472739354</v>
       </c>
       <c r="H11">
-        <v>0.916233890677205</v>
+        <v>1.093606699410714</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.181526246115624</v>
+        <v>0.6250889436056184</v>
       </c>
       <c r="L11">
-        <v>0.4835001151909637</v>
+        <v>0.1938514647523562</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.594503322763188</v>
+        <v>1.149860424272532</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03345800420359879</v>
+        <v>0.04213618998208801</v>
       </c>
       <c r="E12">
-        <v>0.1463934207620543</v>
+        <v>0.288125712357548</v>
       </c>
       <c r="F12">
-        <v>1.707398716170346</v>
+        <v>1.344871158981931</v>
       </c>
       <c r="G12">
-        <v>1.660359005943974</v>
+        <v>1.223816847556918</v>
       </c>
       <c r="H12">
-        <v>0.9302590801924566</v>
+        <v>1.095811337768282</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.236872827272805</v>
+        <v>0.6407452402773686</v>
       </c>
       <c r="L12">
-        <v>0.4966425405278869</v>
+        <v>0.197188758829185</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.586276743018857</v>
+        <v>1.147980098695569</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03348478082525475</v>
+        <v>0.0421282057342296</v>
       </c>
       <c r="E13">
-        <v>0.1464182189284671</v>
+        <v>0.2881756081294018</v>
       </c>
       <c r="F13">
-        <v>1.699865539615857</v>
+        <v>1.343315647461253</v>
       </c>
       <c r="G13">
-        <v>1.652993643970063</v>
+        <v>1.222267033179037</v>
       </c>
       <c r="H13">
-        <v>0.9272243993747225</v>
+        <v>1.095333288894324</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.224939983295542</v>
+        <v>0.6373736837709885</v>
       </c>
       <c r="L13">
-        <v>0.4938073602909157</v>
+        <v>0.1964694721974638</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.559507805040795</v>
+        <v>1.141861540165536</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03357189384781023</v>
+        <v>0.04210206385851123</v>
       </c>
       <c r="E14">
-        <v>0.1465031915131245</v>
+        <v>0.2883400377398306</v>
       </c>
       <c r="F14">
-        <v>1.675399420476936</v>
+        <v>1.338260715758651</v>
       </c>
       <c r="G14">
-        <v>1.629079040548277</v>
+        <v>1.217229782055398</v>
       </c>
       <c r="H14">
-        <v>0.9173814417237054</v>
+        <v>1.093786616272467</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.186073875148139</v>
+        <v>0.6263771347064733</v>
       </c>
       <c r="L14">
-        <v>0.4845792432529379</v>
+        <v>0.1941257823177125</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.543156213401943</v>
+        <v>1.138124195594088</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03362509191654084</v>
+        <v>0.04208597177825268</v>
       </c>
       <c r="E15">
-        <v>0.1465583686490444</v>
+        <v>0.28844206881368</v>
       </c>
       <c r="F15">
-        <v>1.660489796313044</v>
+        <v>1.335178194480434</v>
       </c>
       <c r="G15">
-        <v>1.614510423417443</v>
+        <v>1.214157397439919</v>
       </c>
       <c r="H15">
-        <v>0.9113931061320386</v>
+        <v>1.092848721077502</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.162304345763516</v>
+        <v>0.619640534423894</v>
       </c>
       <c r="L15">
-        <v>0.4789403363580078</v>
+        <v>0.1926917876935335</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.450114188915052</v>
+        <v>1.11686734829479</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03392753084137112</v>
+        <v>0.04199254188146284</v>
       </c>
       <c r="E16">
-        <v>0.1469216442445429</v>
+        <v>0.28904690468182</v>
       </c>
       <c r="F16">
-        <v>1.576174687123569</v>
+        <v>1.317724285734343</v>
       </c>
       <c r="G16">
-        <v>1.532195654291911</v>
+        <v>1.196750855299541</v>
       </c>
       <c r="H16">
-        <v>0.8776778763713082</v>
+        <v>1.087619321974472</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.026621214477331</v>
+        <v>0.5810221855179236</v>
       </c>
       <c r="L16">
-        <v>0.4468234539205014</v>
+        <v>0.184498410414534</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.393595592512611</v>
+        <v>1.103970280853929</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03411096940209646</v>
+        <v>0.04193414873178369</v>
       </c>
       <c r="E17">
-        <v>0.1471855809415601</v>
+        <v>0.2894359307664605</v>
       </c>
       <c r="F17">
-        <v>1.525404492156881</v>
+        <v>1.307204643364372</v>
       </c>
       <c r="G17">
-        <v>1.482690984914257</v>
+        <v>1.18625059672118</v>
       </c>
       <c r="H17">
-        <v>0.8575069897075025</v>
+        <v>1.084540796930469</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.94381748531768</v>
+        <v>0.557319066329967</v>
       </c>
       <c r="L17">
-        <v>0.4272856427216993</v>
+        <v>0.1794936939808025</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.361281251542778</v>
+        <v>1.096604987741188</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03421573182152393</v>
+        <v>0.04190016884266257</v>
       </c>
       <c r="E18">
-        <v>0.1473521294426305</v>
+        <v>0.2896662995110244</v>
       </c>
       <c r="F18">
-        <v>1.496534304566509</v>
+        <v>1.301222902399303</v>
       </c>
       <c r="G18">
-        <v>1.454561728622224</v>
+        <v>1.180276407477947</v>
       </c>
       <c r="H18">
-        <v>0.8460841602427251</v>
+        <v>1.08281767293056</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.896335047636001</v>
+        <v>0.5436812994742013</v>
       </c>
       <c r="L18">
-        <v>0.4161042683730187</v>
+        <v>0.1766230725597211</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.350372329084934</v>
+        <v>1.094120295964785</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03425107673559502</v>
+        <v>0.0418885964188469</v>
       </c>
       <c r="E19">
-        <v>0.1474110184695903</v>
+        <v>0.2897454342787675</v>
       </c>
       <c r="F19">
-        <v>1.486814523080653</v>
+        <v>1.299209405979099</v>
       </c>
       <c r="G19">
-        <v>1.445094954818416</v>
+        <v>1.178264846096283</v>
       </c>
       <c r="H19">
-        <v>0.842246461787596</v>
+        <v>1.082242417438721</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.880281662180835</v>
+        <v>0.5390630424741687</v>
       </c>
       <c r="L19">
-        <v>0.4123277128441032</v>
+        <v>0.1756524965490485</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.399591785920762</v>
+        <v>1.105337737367222</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03409151988601877</v>
+        <v>0.04194040557552015</v>
       </c>
       <c r="E20">
-        <v>0.1471559511107152</v>
+        <v>0.289393834130065</v>
       </c>
       <c r="F20">
-        <v>1.530774335270863</v>
+        <v>1.30831734572385</v>
       </c>
       <c r="G20">
-        <v>1.487924738210069</v>
+        <v>1.18736160700314</v>
       </c>
       <c r="H20">
-        <v>0.8596354909707316</v>
+        <v>1.08486358767172</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.952616837875979</v>
+        <v>0.5598427562954384</v>
       </c>
       <c r="L20">
-        <v>0.429359558471873</v>
+        <v>0.1800256308755053</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.567361007864946</v>
+        <v>1.143656532009686</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03354634035295945</v>
+        <v>0.04210975892414481</v>
       </c>
       <c r="E21">
-        <v>0.1464775787815906</v>
+        <v>0.2882914671324883</v>
       </c>
       <c r="F21">
-        <v>1.682569636538631</v>
+        <v>1.33974260131609</v>
       </c>
       <c r="G21">
-        <v>1.63608659214924</v>
+        <v>1.218706618627493</v>
       </c>
       <c r="H21">
-        <v>0.920264005782883</v>
+        <v>1.094238934301131</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.197481972057403</v>
+        <v>0.629607274843778</v>
       </c>
       <c r="L21">
-        <v>0.487286908325359</v>
+        <v>0.1948138509343096</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.678996045567374</v>
+        <v>1.169168000658743</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.0331828847683866</v>
+        <v>0.04221689174766752</v>
       </c>
       <c r="E22">
-        <v>0.1461732915919942</v>
+        <v>0.2876297927275342</v>
       </c>
       <c r="F22">
-        <v>1.785151430485328</v>
+        <v>1.360896817114863</v>
       </c>
       <c r="G22">
-        <v>1.73643345106052</v>
+        <v>1.239777250963868</v>
       </c>
       <c r="H22">
-        <v>0.9616869615602184</v>
+        <v>1.100790737654961</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.359133523989584</v>
+        <v>0.6751624440546493</v>
       </c>
       <c r="L22">
-        <v>0.5257417876443498</v>
+        <v>0.2045496656444357</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.619218938374644</v>
+        <v>1.155509325785147</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03337754476818233</v>
+        <v>0.04216003977851912</v>
       </c>
       <c r="E23">
-        <v>0.1463225726994679</v>
+        <v>0.2879775660335433</v>
       </c>
       <c r="F23">
-        <v>1.730071137547242</v>
+        <v>1.349549922970866</v>
       </c>
       <c r="G23">
-        <v>1.682531975600341</v>
+        <v>1.228477772902693</v>
       </c>
       <c r="H23">
-        <v>0.9394036410332944</v>
+        <v>1.097255032202582</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.272691790669967</v>
+        <v>0.6508525053379799</v>
       </c>
       <c r="L23">
-        <v>0.5051582929029479</v>
+        <v>0.1993469952039248</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.396880352312792</v>
+        <v>1.104719356372186</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03410031518329859</v>
+        <v>0.04193757812876697</v>
       </c>
       <c r="E24">
-        <v>0.1471693007184509</v>
+        <v>0.2894128451107072</v>
       </c>
       <c r="F24">
-        <v>1.528345642381993</v>
+        <v>1.307814086982646</v>
       </c>
       <c r="G24">
-        <v>1.485557530155063</v>
+        <v>1.186859124452354</v>
       </c>
       <c r="H24">
-        <v>0.8586726567699543</v>
+        <v>1.084717508319386</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.948638272518565</v>
+        <v>0.5587018288495642</v>
       </c>
       <c r="L24">
-        <v>0.4284217827859607</v>
+        <v>0.1797851214727046</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.164329411437507</v>
+        <v>1.05195214277984</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03485175806973295</v>
+        <v>0.04168259306822719</v>
       </c>
       <c r="E25">
-        <v>0.1486423310176335</v>
+        <v>0.2912138386490053</v>
       </c>
       <c r="F25">
-        <v>1.323224450722392</v>
+        <v>1.265426830870965</v>
       </c>
       <c r="G25">
-        <v>1.286048728206026</v>
+        <v>1.14446021004153</v>
       </c>
       <c r="H25">
-        <v>0.7783348931227181</v>
+        <v>1.073011520537534</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.604444757863092</v>
+        <v>0.4591361077524709</v>
       </c>
       <c r="L25">
-        <v>0.3477546245299266</v>
+        <v>0.1589887002936621</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_163/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_163/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.014835047558478</v>
+        <v>0.9980725994778084</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04148214030968056</v>
+        <v>0.03538401422585835</v>
       </c>
       <c r="E2">
-        <v>0.2927579589039091</v>
+        <v>0.1501709076381186</v>
       </c>
       <c r="F2">
-        <v>1.236456993981065</v>
+        <v>1.180892928413513</v>
       </c>
       <c r="G2">
-        <v>1.11535828446145</v>
+        <v>1.148161232993289</v>
       </c>
       <c r="H2">
-        <v>1.06594749751585</v>
+        <v>0.7240021773208838</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3856721015945084</v>
+        <v>1.353994156778867</v>
       </c>
       <c r="L2">
-        <v>0.1439342446123106</v>
+        <v>0.2897092243226638</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9907636128689603</v>
+        <v>0.8879251625082816</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.04133848113034233</v>
+        <v>0.03573336646709357</v>
       </c>
       <c r="E3">
-        <v>0.2939407682653901</v>
+        <v>0.1514669657809176</v>
       </c>
       <c r="F3">
-        <v>1.218209807132737</v>
+        <v>1.088960196947596</v>
       </c>
       <c r="G3">
-        <v>1.096942095090753</v>
+        <v>1.05938792105583</v>
       </c>
       <c r="H3">
-        <v>1.062126300758635</v>
+        <v>0.6897530182559422</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3357844291435299</v>
+        <v>1.185405290607179</v>
       </c>
       <c r="L3">
-        <v>0.1338909479568997</v>
+        <v>0.2510088378754887</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.976518745054733</v>
+        <v>0.8213688892720086</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04124646374188323</v>
+        <v>0.03594287877563573</v>
       </c>
       <c r="E4">
-        <v>0.294734379954761</v>
+        <v>0.1523859401924081</v>
       </c>
       <c r="F4">
-        <v>1.207686301774544</v>
+        <v>1.034476817313418</v>
       </c>
       <c r="G4">
-        <v>1.086274783360608</v>
+        <v>1.006903430860106</v>
       </c>
       <c r="H4">
-        <v>1.06025553162587</v>
+        <v>0.6698631489344535</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3051030483956936</v>
+        <v>1.082244403598594</v>
       </c>
       <c r="L4">
-        <v>0.1278025210259131</v>
+        <v>0.2275002532951049</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9708486908503744</v>
+        <v>0.7944935651780156</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.04120801483429659</v>
+        <v>0.03602709444403907</v>
       </c>
       <c r="E5">
-        <v>0.2950747382443701</v>
+        <v>0.152790689045796</v>
       </c>
       <c r="F5">
-        <v>1.203568621906896</v>
+        <v>1.012731198362189</v>
       </c>
       <c r="G5">
-        <v>1.082088305328483</v>
+        <v>0.9859852879239668</v>
       </c>
       <c r="H5">
-        <v>1.059612631928402</v>
+        <v>0.6620264989477533</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2925876863056374</v>
+        <v>1.040265950925175</v>
       </c>
       <c r="L5">
-        <v>0.1253411061171477</v>
+        <v>0.2179758095478945</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9699153356748411</v>
+        <v>0.790045194841241</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04120157318995155</v>
+        <v>0.03604101095813128</v>
       </c>
       <c r="E6">
-        <v>0.2951322790054025</v>
+        <v>0.1528597046029549</v>
       </c>
       <c r="F6">
-        <v>1.202895186200607</v>
+        <v>1.009146906053019</v>
       </c>
       <c r="G6">
-        <v>1.081402826173147</v>
+        <v>0.9825391235777801</v>
       </c>
       <c r="H6">
-        <v>1.059513090606885</v>
+        <v>0.6607409532755355</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2905087728923093</v>
+        <v>1.033298318084434</v>
       </c>
       <c r="L6">
-        <v>0.1249335781632084</v>
+        <v>0.2163974027088926</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9764417303488244</v>
+        <v>0.8210054693846018</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0412459490474788</v>
+        <v>0.03594401911913714</v>
       </c>
       <c r="E7">
-        <v>0.294738901472968</v>
+        <v>0.1523912771784044</v>
       </c>
       <c r="F7">
-        <v>1.207630078468611</v>
+        <v>1.034181745958051</v>
       </c>
       <c r="G7">
-        <v>1.08621767367012</v>
+        <v>1.006619469297078</v>
       </c>
       <c r="H7">
-        <v>1.060246377735822</v>
+        <v>0.6697563962201372</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3049343120373749</v>
+        <v>1.081678058901076</v>
       </c>
       <c r="L7">
-        <v>0.1277692458783548</v>
+        <v>0.2273715891752204</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.006424323061765</v>
+        <v>0.9598561742203913</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04143340151506969</v>
+        <v>0.03550556187034992</v>
       </c>
       <c r="E8">
-        <v>0.2931518204212828</v>
+        <v>0.1505917766172278</v>
       </c>
       <c r="F8">
-        <v>1.230023944222125</v>
+        <v>1.148763953608736</v>
       </c>
       <c r="G8">
-        <v>1.108875196035143</v>
+        <v>1.117108183526909</v>
       </c>
       <c r="H8">
-        <v>1.064531200369203</v>
+        <v>0.7119455152630252</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.368481319398569</v>
+        <v>1.29577361556764</v>
       </c>
       <c r="L8">
-        <v>0.1404550852265913</v>
+        <v>0.2763075356269553</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.069457376358173</v>
+        <v>1.241811400053365</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04177047422624547</v>
+        <v>0.03460212390265838</v>
       </c>
       <c r="E9">
-        <v>0.2905733403527382</v>
+        <v>0.1480747994835454</v>
       </c>
       <c r="F9">
-        <v>1.2793556116508</v>
+        <v>1.390841090910499</v>
       </c>
       <c r="G9">
-        <v>1.158411781266523</v>
+        <v>1.351719709189524</v>
       </c>
       <c r="H9">
-        <v>1.076712610597497</v>
+        <v>0.8045865211385603</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4926983044041435</v>
+        <v>1.719822673476784</v>
       </c>
       <c r="L9">
-        <v>0.1659537250190226</v>
+        <v>0.3746888616735617</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.11834613595309</v>
+        <v>1.456590453767319</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04199915144917199</v>
+        <v>0.03390649626787834</v>
       </c>
       <c r="E10">
-        <v>0.2890034096473659</v>
+        <v>0.1468935499642594</v>
       </c>
       <c r="F10">
-        <v>1.318933992454788</v>
+        <v>1.582014210773409</v>
       </c>
       <c r="G10">
-        <v>1.197957865798514</v>
+        <v>1.537892615085383</v>
       </c>
       <c r="H10">
-        <v>1.087977051123858</v>
+        <v>0.8800044272173579</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5837262815918223</v>
+        <v>2.03609030464591</v>
       </c>
       <c r="L10">
-        <v>0.1850705617980424</v>
+        <v>0.4490607859747513</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.141146225536431</v>
+        <v>1.556378227018257</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04209899126679417</v>
+        <v>0.03358207646376243</v>
       </c>
       <c r="E11">
-        <v>0.2883594713061566</v>
+        <v>0.1465135582224839</v>
       </c>
       <c r="F11">
-        <v>1.337670426804806</v>
+        <v>1.672543742164521</v>
       </c>
       <c r="G11">
-        <v>1.216641472739354</v>
+        <v>1.626288386426381</v>
       </c>
       <c r="H11">
-        <v>1.093606699410714</v>
+        <v>0.916233890677205</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6250889436056184</v>
+        <v>2.181526246115567</v>
       </c>
       <c r="L11">
-        <v>0.1938514647523562</v>
+        <v>0.4835001151910063</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.149860424272532</v>
+        <v>1.594503322763273</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04213618998208801</v>
+        <v>0.03345800420368406</v>
       </c>
       <c r="E12">
-        <v>0.288125712357548</v>
+        <v>0.1463934207620827</v>
       </c>
       <c r="F12">
-        <v>1.344871158981931</v>
+        <v>1.707398716170346</v>
       </c>
       <c r="G12">
-        <v>1.223816847556918</v>
+        <v>1.660359005943945</v>
       </c>
       <c r="H12">
-        <v>1.095811337768282</v>
+        <v>0.9302590801924566</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6407452402773686</v>
+        <v>2.236872827272663</v>
       </c>
       <c r="L12">
-        <v>0.197188758829185</v>
+        <v>0.4966425405279011</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.147980098695569</v>
+        <v>1.5862767430188</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0421282057342296</v>
+        <v>0.03348478082516948</v>
       </c>
       <c r="E13">
-        <v>0.2881756081294018</v>
+        <v>0.1464182189284404</v>
       </c>
       <c r="F13">
-        <v>1.343315647461253</v>
+        <v>1.699865539615857</v>
       </c>
       <c r="G13">
-        <v>1.222267033179037</v>
+        <v>1.652993643970035</v>
       </c>
       <c r="H13">
-        <v>1.095333288894324</v>
+        <v>0.9272243993747225</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6373736837709885</v>
+        <v>2.224939983295542</v>
       </c>
       <c r="L13">
-        <v>0.1964694721974638</v>
+        <v>0.4938073602908872</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.141861540165536</v>
+        <v>1.559507805040823</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04210206385851123</v>
+        <v>0.03357189384799497</v>
       </c>
       <c r="E14">
-        <v>0.2883400377398306</v>
+        <v>0.1465031915131298</v>
       </c>
       <c r="F14">
-        <v>1.338260715758651</v>
+        <v>1.675399420476936</v>
       </c>
       <c r="G14">
-        <v>1.217229782055398</v>
+        <v>1.629079040548248</v>
       </c>
       <c r="H14">
-        <v>1.093786616272467</v>
+        <v>0.9173814417237054</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6263771347064733</v>
+        <v>2.186073875148168</v>
       </c>
       <c r="L14">
-        <v>0.1941257823177125</v>
+        <v>0.4845792432529521</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.138124195594088</v>
+        <v>1.543156213401971</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04208597177825268</v>
+        <v>0.03362509191664742</v>
       </c>
       <c r="E15">
-        <v>0.28844206881368</v>
+        <v>0.1465583686490479</v>
       </c>
       <c r="F15">
-        <v>1.335178194480434</v>
+        <v>1.660489796313044</v>
       </c>
       <c r="G15">
-        <v>1.214157397439919</v>
+        <v>1.614510423417414</v>
       </c>
       <c r="H15">
-        <v>1.092848721077502</v>
+        <v>0.9113931061321523</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.619640534423894</v>
+        <v>2.162304345763573</v>
       </c>
       <c r="L15">
-        <v>0.1926917876935335</v>
+        <v>0.4789403363579652</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.11686734829479</v>
+        <v>1.45011418891508</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04199254188146284</v>
+        <v>0.03392753084107625</v>
       </c>
       <c r="E16">
-        <v>0.28904690468182</v>
+        <v>0.1469216442445482</v>
       </c>
       <c r="F16">
-        <v>1.317724285734343</v>
+        <v>1.576174687123569</v>
       </c>
       <c r="G16">
-        <v>1.196750855299541</v>
+        <v>1.532195654291939</v>
       </c>
       <c r="H16">
-        <v>1.087619321974472</v>
+        <v>0.8776778763713082</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5810221855179236</v>
+        <v>2.026621214477359</v>
       </c>
       <c r="L16">
-        <v>0.184498410414534</v>
+        <v>0.4468234539205156</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.103970280853929</v>
+        <v>1.393595592512611</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04193414873178369</v>
+        <v>0.034110969402116</v>
       </c>
       <c r="E17">
-        <v>0.2894359307664605</v>
+        <v>0.1471855809415672</v>
       </c>
       <c r="F17">
-        <v>1.307204643364372</v>
+        <v>1.525404492156881</v>
       </c>
       <c r="G17">
-        <v>1.18625059672118</v>
+        <v>1.482690984914257</v>
       </c>
       <c r="H17">
-        <v>1.084540796930469</v>
+        <v>0.8575069897073604</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.557319066329967</v>
+        <v>1.943817485317709</v>
       </c>
       <c r="L17">
-        <v>0.1794936939808025</v>
+        <v>0.4272856427217562</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.096604987741188</v>
+        <v>1.361281251542806</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04190016884266257</v>
+        <v>0.03421573182152748</v>
       </c>
       <c r="E18">
-        <v>0.2896662995110244</v>
+        <v>0.147352129442627</v>
       </c>
       <c r="F18">
-        <v>1.301222902399303</v>
+        <v>1.496534304566509</v>
       </c>
       <c r="G18">
-        <v>1.180276407477947</v>
+        <v>1.454561728622139</v>
       </c>
       <c r="H18">
-        <v>1.08281767293056</v>
+        <v>0.8460841602427251</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5436812994742013</v>
+        <v>1.896335047635915</v>
       </c>
       <c r="L18">
-        <v>0.1766230725597211</v>
+        <v>0.4161042683730898</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.094120295964785</v>
+        <v>1.350372329084905</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.0418885964188469</v>
+        <v>0.03425107673578687</v>
       </c>
       <c r="E19">
-        <v>0.2897454342787675</v>
+        <v>0.1474110184695689</v>
       </c>
       <c r="F19">
-        <v>1.299209405979099</v>
+        <v>1.486814523080653</v>
       </c>
       <c r="G19">
-        <v>1.178264846096283</v>
+        <v>1.445094954818387</v>
       </c>
       <c r="H19">
-        <v>1.082242417438721</v>
+        <v>0.842246461787596</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5390630424741687</v>
+        <v>1.880281662180948</v>
       </c>
       <c r="L19">
-        <v>0.1756524965490485</v>
+        <v>0.41232771284416</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.105337737367222</v>
+        <v>1.399591785920677</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04194040557552015</v>
+        <v>0.03409151988613424</v>
       </c>
       <c r="E20">
-        <v>0.289393834130065</v>
+        <v>0.1471559511107223</v>
       </c>
       <c r="F20">
-        <v>1.30831734572385</v>
+        <v>1.53077433527082</v>
       </c>
       <c r="G20">
-        <v>1.18736160700314</v>
+        <v>1.487924738210069</v>
       </c>
       <c r="H20">
-        <v>1.08486358767172</v>
+        <v>0.85963549097076</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5598427562954384</v>
+        <v>1.952616837876008</v>
       </c>
       <c r="L20">
-        <v>0.1800256308755053</v>
+        <v>0.4293595584719014</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.143656532009686</v>
+        <v>1.567361007864974</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04210975892414481</v>
+        <v>0.03354634035307669</v>
       </c>
       <c r="E21">
-        <v>0.2882914671324883</v>
+        <v>0.1464775787815942</v>
       </c>
       <c r="F21">
-        <v>1.33974260131609</v>
+        <v>1.682569636538631</v>
       </c>
       <c r="G21">
-        <v>1.218706618627493</v>
+        <v>1.636086592149212</v>
       </c>
       <c r="H21">
-        <v>1.094238934301131</v>
+        <v>0.920264005782883</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.629607274843778</v>
+        <v>2.197481972057403</v>
       </c>
       <c r="L21">
-        <v>0.1948138509343096</v>
+        <v>0.4872869083252453</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.169168000658743</v>
+        <v>1.678996045567573</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04221689174766752</v>
+        <v>0.03318288476816278</v>
       </c>
       <c r="E22">
-        <v>0.2876297927275342</v>
+        <v>0.1461732915919871</v>
       </c>
       <c r="F22">
-        <v>1.360896817114863</v>
+        <v>1.785151430485314</v>
       </c>
       <c r="G22">
-        <v>1.239777250963868</v>
+        <v>1.73643345106052</v>
       </c>
       <c r="H22">
-        <v>1.100790737654961</v>
+        <v>0.9616869615603321</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6751624440546493</v>
+        <v>2.359133523989641</v>
       </c>
       <c r="L22">
-        <v>0.2045496656444357</v>
+        <v>0.5257417876444634</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.155509325785147</v>
+        <v>1.619218938374615</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04216003977851912</v>
+        <v>0.03337754476817523</v>
       </c>
       <c r="E23">
-        <v>0.2879775660335433</v>
+        <v>0.1463225726994963</v>
       </c>
       <c r="F23">
-        <v>1.349549922970866</v>
+        <v>1.730071137547242</v>
       </c>
       <c r="G23">
-        <v>1.228477772902693</v>
+        <v>1.682531975600313</v>
       </c>
       <c r="H23">
-        <v>1.097255032202582</v>
+        <v>0.9394036410334081</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6508525053379799</v>
+        <v>2.272691790670024</v>
       </c>
       <c r="L23">
-        <v>0.1993469952039248</v>
+        <v>0.5051582929029053</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.104719356372186</v>
+        <v>1.39688035231282</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04193757812876697</v>
+        <v>0.03410031518318313</v>
       </c>
       <c r="E24">
-        <v>0.2894128451107072</v>
+        <v>0.1471693007184811</v>
       </c>
       <c r="F24">
-        <v>1.307814086982646</v>
+        <v>1.528345642381979</v>
       </c>
       <c r="G24">
-        <v>1.186859124452354</v>
+        <v>1.485557530155091</v>
       </c>
       <c r="H24">
-        <v>1.084717508319386</v>
+        <v>0.8586726567698975</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5587018288495642</v>
+        <v>1.948638272518565</v>
       </c>
       <c r="L24">
-        <v>0.1797851214727046</v>
+        <v>0.4284217827858754</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05195214277984</v>
+        <v>1.16432941143745</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.04168259306822719</v>
+        <v>0.03485175806972052</v>
       </c>
       <c r="E25">
-        <v>0.2912138386490053</v>
+        <v>0.1486423310176459</v>
       </c>
       <c r="F25">
-        <v>1.265426830870965</v>
+        <v>1.323224450722407</v>
       </c>
       <c r="G25">
-        <v>1.14446021004153</v>
+        <v>1.286048728205969</v>
       </c>
       <c r="H25">
-        <v>1.073011520537534</v>
+        <v>0.778334893122576</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4591361077524709</v>
+        <v>1.604444757863121</v>
       </c>
       <c r="L25">
-        <v>0.1589887002936621</v>
+        <v>0.3477546245299692</v>
       </c>
       <c r="M25">
         <v>0</v>
